--- a/my/extra/excel/base.xlsx
+++ b/my/extra/excel/base.xlsx
@@ -142,9 +142,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -231,45 +239,45 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="30.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="13.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="30.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="16.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="18.06"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
